--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Mif-Cxcr4.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Mif-Cxcr4.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>20.9662916240583</v>
+        <v>28.401376</v>
       </c>
       <c r="H2">
-        <v>20.9662916240583</v>
+        <v>85.204128</v>
       </c>
       <c r="I2">
-        <v>0.3020576937253134</v>
+        <v>0.2813463917610605</v>
       </c>
       <c r="J2">
-        <v>0.3020576937253134</v>
+        <v>0.2813463917610605</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>71.3219165230969</v>
+        <v>224.2321046666667</v>
       </c>
       <c r="N2">
-        <v>71.3219165230969</v>
+        <v>672.696314</v>
       </c>
       <c r="O2">
-        <v>0.7741254310749172</v>
+        <v>0.9009864013525987</v>
       </c>
       <c r="P2">
-        <v>0.7741254310749172</v>
+        <v>0.9009864013525988</v>
       </c>
       <c r="Q2">
-        <v>1495.356101009992</v>
+        <v>6368.500315909355</v>
       </c>
       <c r="R2">
-        <v>1495.356101009992</v>
+        <v>57316.50284318419</v>
       </c>
       <c r="S2">
-        <v>0.2338305423646036</v>
+        <v>0.2534892730463363</v>
       </c>
       <c r="T2">
-        <v>0.2338305423646036</v>
+        <v>0.2534892730463363</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>20.9662916240583</v>
+        <v>28.401376</v>
       </c>
       <c r="H3">
-        <v>20.9662916240583</v>
+        <v>85.204128</v>
       </c>
       <c r="I3">
-        <v>0.3020576937253134</v>
+        <v>0.2813463917610605</v>
       </c>
       <c r="J3">
-        <v>0.3020576937253134</v>
+        <v>0.2813463917610605</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.653126915066964</v>
+        <v>1.023704333333333</v>
       </c>
       <c r="N3">
-        <v>0.653126915066964</v>
+        <v>3.071113</v>
       </c>
       <c r="O3">
-        <v>0.007089015260955726</v>
+        <v>0.004113343558497904</v>
       </c>
       <c r="P3">
-        <v>0.007089015260955726</v>
+        <v>0.004113343558497904</v>
       </c>
       <c r="Q3">
-        <v>13.69364936881552</v>
+        <v>29.07461168382933</v>
       </c>
       <c r="R3">
-        <v>13.69364936881552</v>
+        <v>261.671505154464</v>
       </c>
       <c r="S3">
-        <v>0.002141291600507837</v>
+        <v>0.001157274368256986</v>
       </c>
       <c r="T3">
-        <v>0.002141291600507837</v>
+        <v>0.001157274368256986</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>20.9662916240583</v>
+        <v>28.401376</v>
       </c>
       <c r="H4">
-        <v>20.9662916240583</v>
+        <v>85.204128</v>
       </c>
       <c r="I4">
-        <v>0.3020576937253134</v>
+        <v>0.2813463917610605</v>
       </c>
       <c r="J4">
-        <v>0.3020576937253134</v>
+        <v>0.2813463917610605</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>20.1572049806258</v>
+        <v>23.61820766666667</v>
       </c>
       <c r="N4">
-        <v>20.1572049806258</v>
+        <v>70.854623</v>
       </c>
       <c r="O4">
-        <v>0.2187855536641272</v>
+        <v>0.0949002550889034</v>
       </c>
       <c r="P4">
-        <v>0.2187855536641272</v>
+        <v>0.09490025508890343</v>
       </c>
       <c r="Q4">
-        <v>422.6218379497209</v>
+        <v>670.7895963870826</v>
       </c>
       <c r="R4">
-        <v>422.6218379497209</v>
+        <v>6037.106367483744</v>
       </c>
       <c r="S4">
-        <v>0.06608585976020205</v>
+        <v>0.02669984434646719</v>
       </c>
       <c r="T4">
-        <v>0.06608585976020205</v>
+        <v>0.0266998443464672</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>14.4095111796035</v>
+        <v>14.83037466666667</v>
       </c>
       <c r="H5">
-        <v>14.4095111796035</v>
+        <v>44.491124</v>
       </c>
       <c r="I5">
-        <v>0.2075953054867254</v>
+        <v>0.1469109243485705</v>
       </c>
       <c r="J5">
-        <v>0.2075953054867254</v>
+        <v>0.1469109243485705</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>71.3219165230969</v>
+        <v>224.2321046666667</v>
       </c>
       <c r="N5">
-        <v>71.3219165230969</v>
+        <v>672.696314</v>
       </c>
       <c r="O5">
-        <v>0.7741254310749172</v>
+        <v>0.9009864013525987</v>
       </c>
       <c r="P5">
-        <v>0.7741254310749172</v>
+        <v>0.9009864013525988</v>
       </c>
       <c r="Q5">
-        <v>1027.713953490312</v>
+        <v>3325.446124501882</v>
       </c>
       <c r="R5">
-        <v>1027.713953490312</v>
+        <v>29929.01512051693</v>
       </c>
       <c r="S5">
-        <v>0.1607048053490404</v>
+        <v>0.1323647450482024</v>
       </c>
       <c r="T5">
-        <v>0.1607048053490404</v>
+        <v>0.1323647450482024</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>14.4095111796035</v>
+        <v>14.83037466666667</v>
       </c>
       <c r="H6">
-        <v>14.4095111796035</v>
+        <v>44.491124</v>
       </c>
       <c r="I6">
-        <v>0.2075953054867254</v>
+        <v>0.1469109243485705</v>
       </c>
       <c r="J6">
-        <v>0.2075953054867254</v>
+        <v>0.1469109243485705</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.653126915066964</v>
+        <v>1.023704333333333</v>
       </c>
       <c r="N6">
-        <v>0.653126915066964</v>
+        <v>3.071113</v>
       </c>
       <c r="O6">
-        <v>0.007089015260955726</v>
+        <v>0.004113343558497904</v>
       </c>
       <c r="P6">
-        <v>0.007089015260955726</v>
+        <v>0.004113343558497904</v>
       </c>
       <c r="Q6">
-        <v>9.411239584357363</v>
+        <v>15.18191881122356</v>
       </c>
       <c r="R6">
-        <v>9.411239584357363</v>
+        <v>136.637269301012</v>
       </c>
       <c r="S6">
-        <v>0.001471646288698162</v>
+        <v>0.0006042951043421654</v>
       </c>
       <c r="T6">
-        <v>0.001471646288698162</v>
+        <v>0.0006042951043421656</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>14.4095111796035</v>
+        <v>14.83037466666667</v>
       </c>
       <c r="H7">
-        <v>14.4095111796035</v>
+        <v>44.491124</v>
       </c>
       <c r="I7">
-        <v>0.2075953054867254</v>
+        <v>0.1469109243485705</v>
       </c>
       <c r="J7">
-        <v>0.2075953054867254</v>
+        <v>0.1469109243485705</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>20.1572049806258</v>
+        <v>23.61820766666667</v>
       </c>
       <c r="N7">
-        <v>20.1572049806258</v>
+        <v>70.854623</v>
       </c>
       <c r="O7">
-        <v>0.2187855536641272</v>
+        <v>0.0949002550889034</v>
       </c>
       <c r="P7">
-        <v>0.2187855536641272</v>
+        <v>0.09490025508890343</v>
       </c>
       <c r="Q7">
-        <v>290.4554705178868</v>
+        <v>350.2668686518057</v>
       </c>
       <c r="R7">
-        <v>290.4554705178868</v>
+        <v>3152.401817866252</v>
       </c>
       <c r="S7">
-        <v>0.04541885384898683</v>
+        <v>0.01394188419602593</v>
       </c>
       <c r="T7">
-        <v>0.04541885384898683</v>
+        <v>0.01394188419602594</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>34.0357435982144</v>
+        <v>57.71632199999999</v>
       </c>
       <c r="H8">
-        <v>34.0357435982144</v>
+        <v>173.148966</v>
       </c>
       <c r="I8">
-        <v>0.4903470007879613</v>
+        <v>0.571742683890369</v>
       </c>
       <c r="J8">
-        <v>0.4903470007879613</v>
+        <v>0.571742683890369</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>71.3219165230969</v>
+        <v>224.2321046666667</v>
       </c>
       <c r="N8">
-        <v>71.3219165230969</v>
+        <v>672.696314</v>
       </c>
       <c r="O8">
-        <v>0.7741254310749172</v>
+        <v>0.9009864013525987</v>
       </c>
       <c r="P8">
-        <v>0.7741254310749172</v>
+        <v>0.9009864013525988</v>
       </c>
       <c r="Q8">
-        <v>2427.494463713378</v>
+        <v>12941.85235567904</v>
       </c>
       <c r="R8">
-        <v>2427.494463713378</v>
+        <v>116476.6712011113</v>
       </c>
       <c r="S8">
-        <v>0.3795900833612733</v>
+        <v>0.5151323832580599</v>
       </c>
       <c r="T8">
-        <v>0.3795900833612733</v>
+        <v>0.51513238325806</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>34.0357435982144</v>
+        <v>57.71632199999999</v>
       </c>
       <c r="H9">
-        <v>34.0357435982144</v>
+        <v>173.148966</v>
       </c>
       <c r="I9">
-        <v>0.4903470007879613</v>
+        <v>0.571742683890369</v>
       </c>
       <c r="J9">
-        <v>0.4903470007879613</v>
+        <v>0.571742683890369</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.653126915066964</v>
+        <v>1.023704333333333</v>
       </c>
       <c r="N9">
-        <v>0.653126915066964</v>
+        <v>3.071113</v>
       </c>
       <c r="O9">
-        <v>0.007089015260955726</v>
+        <v>0.004113343558497904</v>
       </c>
       <c r="P9">
-        <v>0.007089015260955726</v>
+        <v>0.004113343558497904</v>
       </c>
       <c r="Q9">
-        <v>22.22966021831194</v>
+        <v>59.08444893546199</v>
       </c>
       <c r="R9">
-        <v>22.22966021831194</v>
+        <v>531.7600404191579</v>
       </c>
       <c r="S9">
-        <v>0.003476077371749728</v>
+        <v>0.002351774085898752</v>
       </c>
       <c r="T9">
-        <v>0.003476077371749728</v>
+        <v>0.002351774085898753</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>34.0357435982144</v>
+        <v>57.71632199999999</v>
       </c>
       <c r="H10">
-        <v>34.0357435982144</v>
+        <v>173.148966</v>
       </c>
       <c r="I10">
-        <v>0.4903470007879613</v>
+        <v>0.571742683890369</v>
       </c>
       <c r="J10">
-        <v>0.4903470007879613</v>
+        <v>0.571742683890369</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>20.1572049806258</v>
+        <v>23.61820766666667</v>
       </c>
       <c r="N10">
-        <v>20.1572049806258</v>
+        <v>70.854623</v>
       </c>
       <c r="O10">
-        <v>0.2187855536641272</v>
+        <v>0.0949002550889034</v>
       </c>
       <c r="P10">
-        <v>0.2187855536641272</v>
+        <v>0.09490025508890343</v>
       </c>
       <c r="Q10">
-        <v>686.06546037723</v>
+        <v>1363.156078752202</v>
       </c>
       <c r="R10">
-        <v>686.06546037723</v>
+        <v>12268.40470876982</v>
       </c>
       <c r="S10">
-        <v>0.1072808400549383</v>
+        <v>0.05425852654641028</v>
       </c>
       <c r="T10">
-        <v>0.1072808400549383</v>
+        <v>0.05425852654641029</v>
       </c>
     </row>
   </sheetData>
